--- a/결과sheet템플릿.xlsx
+++ b/결과sheet템플릿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="3200" windowWidth="25360" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="2680" yWindow="60" windowWidth="13800" windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="599">
   <si>
     <t>A_PRE_1</t>
   </si>
@@ -630,9 +630,6 @@
     <t>C_PRE_15</t>
   </si>
   <si>
-    <t>C_PRE_16</t>
-  </si>
-  <si>
     <t>C_POST_1</t>
   </si>
   <si>
@@ -919,6 +916,906 @@
   </si>
   <si>
     <t>file_name</t>
+  </si>
+  <si>
+    <t>(file name split)</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>b10</t>
+  </si>
+  <si>
+    <t>b11</t>
+  </si>
+  <si>
+    <t>b12</t>
+  </si>
+  <si>
+    <t>b13</t>
+  </si>
+  <si>
+    <t>b14</t>
+  </si>
+  <si>
+    <t>b15</t>
+  </si>
+  <si>
+    <t>b16</t>
+  </si>
+  <si>
+    <t>b17</t>
+  </si>
+  <si>
+    <t>b18</t>
+  </si>
+  <si>
+    <t>b19</t>
+  </si>
+  <si>
+    <t>b20</t>
+  </si>
+  <si>
+    <t>b21</t>
+  </si>
+  <si>
+    <t>b22</t>
+  </si>
+  <si>
+    <t>b23</t>
+  </si>
+  <si>
+    <t>b24</t>
+  </si>
+  <si>
+    <t>b25</t>
+  </si>
+  <si>
+    <t>b26</t>
+  </si>
+  <si>
+    <t>b27</t>
+  </si>
+  <si>
+    <t>b28</t>
+  </si>
+  <si>
+    <t>b29</t>
+  </si>
+  <si>
+    <t>b30</t>
+  </si>
+  <si>
+    <t>b31</t>
+  </si>
+  <si>
+    <t>b32</t>
+  </si>
+  <si>
+    <t>b33</t>
+  </si>
+  <si>
+    <t>b34</t>
+  </si>
+  <si>
+    <t>b35</t>
+  </si>
+  <si>
+    <t>b36</t>
+  </si>
+  <si>
+    <t>b37</t>
+  </si>
+  <si>
+    <t>b38</t>
+  </si>
+  <si>
+    <t>b39</t>
+  </si>
+  <si>
+    <t>b40</t>
+  </si>
+  <si>
+    <t>b41</t>
+  </si>
+  <si>
+    <t>b42</t>
+  </si>
+  <si>
+    <t>b43</t>
+  </si>
+  <si>
+    <t>b44</t>
+  </si>
+  <si>
+    <t>b45</t>
+  </si>
+  <si>
+    <t>b46</t>
+  </si>
+  <si>
+    <t>b47</t>
+  </si>
+  <si>
+    <t>b48</t>
+  </si>
+  <si>
+    <t>b49</t>
+  </si>
+  <si>
+    <t>b50</t>
+  </si>
+  <si>
+    <t>b51</t>
+  </si>
+  <si>
+    <t>b52</t>
+  </si>
+  <si>
+    <t>b53</t>
+  </si>
+  <si>
+    <t>b54</t>
+  </si>
+  <si>
+    <t>b55</t>
+  </si>
+  <si>
+    <t>b56</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>c15</t>
+  </si>
+  <si>
+    <t>c16</t>
+  </si>
+  <si>
+    <t>c17</t>
+  </si>
+  <si>
+    <t>c18</t>
+  </si>
+  <si>
+    <t>c19</t>
+  </si>
+  <si>
+    <t>c20</t>
+  </si>
+  <si>
+    <t>c21</t>
+  </si>
+  <si>
+    <t>c22</t>
+  </si>
+  <si>
+    <t>c23</t>
+  </si>
+  <si>
+    <t>c24</t>
+  </si>
+  <si>
+    <t>c25</t>
+  </si>
+  <si>
+    <t>c26</t>
+  </si>
+  <si>
+    <t>c27</t>
+  </si>
+  <si>
+    <t>c28</t>
+  </si>
+  <si>
+    <t>c29</t>
+  </si>
+  <si>
+    <t>c30</t>
+  </si>
+  <si>
+    <t>c31</t>
+  </si>
+  <si>
+    <t>c32</t>
+  </si>
+  <si>
+    <t>c33</t>
+  </si>
+  <si>
+    <t>c34</t>
+  </si>
+  <si>
+    <t>c35</t>
+  </si>
+  <si>
+    <t>c36</t>
+  </si>
+  <si>
+    <t>c37</t>
+  </si>
+  <si>
+    <t>c38</t>
+  </si>
+  <si>
+    <t>c39</t>
+  </si>
+  <si>
+    <t>c40</t>
+  </si>
+  <si>
+    <t>c41</t>
+  </si>
+  <si>
+    <t>c42</t>
+  </si>
+  <si>
+    <t>c43</t>
+  </si>
+  <si>
+    <t>c44</t>
+  </si>
+  <si>
+    <t>c45</t>
+  </si>
+  <si>
+    <t>c46</t>
+  </si>
+  <si>
+    <t>c47</t>
+  </si>
+  <si>
+    <t>c48</t>
+  </si>
+  <si>
+    <t>c49</t>
+  </si>
+  <si>
+    <t>c50</t>
+  </si>
+  <si>
+    <t>c51</t>
+  </si>
+  <si>
+    <t>c52</t>
+  </si>
+  <si>
+    <t>c53</t>
+  </si>
+  <si>
+    <t>c54</t>
+  </si>
+  <si>
+    <t>c55</t>
+  </si>
+  <si>
+    <t>c56</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>e8</t>
+  </si>
+  <si>
+    <t>e9</t>
+  </si>
+  <si>
+    <t>e10</t>
+  </si>
+  <si>
+    <t>e11</t>
+  </si>
+  <si>
+    <t>e12</t>
+  </si>
+  <si>
+    <t>e13</t>
+  </si>
+  <si>
+    <t>e14</t>
+  </si>
+  <si>
+    <t>e15</t>
+  </si>
+  <si>
+    <t>e16</t>
+  </si>
+  <si>
+    <t>e17</t>
+  </si>
+  <si>
+    <t>e18</t>
+  </si>
+  <si>
+    <t>e19</t>
+  </si>
+  <si>
+    <t>e20</t>
+  </si>
+  <si>
+    <t>e21</t>
+  </si>
+  <si>
+    <t>e22</t>
+  </si>
+  <si>
+    <t>e23</t>
+  </si>
+  <si>
+    <t>e24</t>
+  </si>
+  <si>
+    <t>e25</t>
+  </si>
+  <si>
+    <t>e26</t>
+  </si>
+  <si>
+    <t>e27</t>
+  </si>
+  <si>
+    <t>e28</t>
+  </si>
+  <si>
+    <t>e29</t>
+  </si>
+  <si>
+    <t>e30</t>
+  </si>
+  <si>
+    <t>e31</t>
+  </si>
+  <si>
+    <t>e32</t>
+  </si>
+  <si>
+    <t>e33</t>
+  </si>
+  <si>
+    <t>e34</t>
+  </si>
+  <si>
+    <t>e35</t>
+  </si>
+  <si>
+    <t>e36</t>
+  </si>
+  <si>
+    <t>e37</t>
+  </si>
+  <si>
+    <t>e38</t>
+  </si>
+  <si>
+    <t>e39</t>
+  </si>
+  <si>
+    <t>e40</t>
+  </si>
+  <si>
+    <t>e41</t>
+  </si>
+  <si>
+    <t>e42</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>f9</t>
+  </si>
+  <si>
+    <t>f10</t>
+  </si>
+  <si>
+    <t>f11</t>
+  </si>
+  <si>
+    <t>f12</t>
+  </si>
+  <si>
+    <t>f13</t>
+  </si>
+  <si>
+    <t>f14</t>
+  </si>
+  <si>
+    <t>f15</t>
+  </si>
+  <si>
+    <t>f16</t>
+  </si>
+  <si>
+    <t>f17</t>
+  </si>
+  <si>
+    <t>f18</t>
+  </si>
+  <si>
+    <t>f19</t>
+  </si>
+  <si>
+    <t>f20</t>
+  </si>
+  <si>
+    <t>f21</t>
+  </si>
+  <si>
+    <t>f22</t>
+  </si>
+  <si>
+    <t>f23</t>
+  </si>
+  <si>
+    <t>f24</t>
+  </si>
+  <si>
+    <t>f25</t>
+  </si>
+  <si>
+    <t>f26</t>
+  </si>
+  <si>
+    <t>f27</t>
+  </si>
+  <si>
+    <t>f28</t>
+  </si>
+  <si>
+    <t>f29</t>
+  </si>
+  <si>
+    <t>f30</t>
+  </si>
+  <si>
+    <t>f31</t>
+  </si>
+  <si>
+    <t>f32</t>
+  </si>
+  <si>
+    <t>f33</t>
+  </si>
+  <si>
+    <t>f34</t>
+  </si>
+  <si>
+    <t>f35</t>
+  </si>
+  <si>
+    <t>f36</t>
+  </si>
+  <si>
+    <t>f37</t>
+  </si>
+  <si>
+    <t>f38</t>
+  </si>
+  <si>
+    <t>f39</t>
+  </si>
+  <si>
+    <t>f40</t>
+  </si>
+  <si>
+    <t>f41</t>
+  </si>
+  <si>
+    <t>f42</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>h8</t>
+  </si>
+  <si>
+    <t>h9</t>
+  </si>
+  <si>
+    <t>h10</t>
+  </si>
+  <si>
+    <t>h11</t>
+  </si>
+  <si>
+    <t>h12</t>
+  </si>
+  <si>
+    <t>h13</t>
+  </si>
+  <si>
+    <t>h14</t>
+  </si>
+  <si>
+    <t>h15</t>
+  </si>
+  <si>
+    <t>h16</t>
+  </si>
+  <si>
+    <t>h17</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>i4</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>i6</t>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>i9</t>
+  </si>
+  <si>
+    <t>i10</t>
+  </si>
+  <si>
+    <t>i11</t>
+  </si>
+  <si>
+    <t>i12</t>
+  </si>
+  <si>
+    <t>i13</t>
+  </si>
+  <si>
+    <t>i14</t>
+  </si>
+  <si>
+    <t>i15</t>
+  </si>
+  <si>
+    <t>i16</t>
+  </si>
+  <si>
+    <t>i17</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>k5</t>
+  </si>
+  <si>
+    <t>k6</t>
+  </si>
+  <si>
+    <t>k7</t>
+  </si>
+  <si>
+    <t>k8</t>
+  </si>
+  <si>
+    <t>k9</t>
+  </si>
+  <si>
+    <t>k10</t>
+  </si>
+  <si>
+    <t>k11</t>
+  </si>
+  <si>
+    <t>k12</t>
+  </si>
+  <si>
+    <t>k13</t>
+  </si>
+  <si>
+    <t>k14</t>
+  </si>
+  <si>
+    <t>k15</t>
+  </si>
+  <si>
+    <t>k16</t>
+  </si>
+  <si>
+    <t>k17</t>
+  </si>
+  <si>
+    <t>k18</t>
+  </si>
+  <si>
+    <t>k19</t>
+  </si>
+  <si>
+    <t>k20</t>
+  </si>
+  <si>
+    <t>k21</t>
+  </si>
+  <si>
+    <t>k22</t>
+  </si>
+  <si>
+    <t>k23</t>
+  </si>
+  <si>
+    <t>k24</t>
+  </si>
+  <si>
+    <t>k25</t>
+  </si>
+  <si>
+    <t>k26</t>
+  </si>
+  <si>
+    <t>k27</t>
+  </si>
+  <si>
+    <t>k28</t>
+  </si>
+  <si>
+    <t>k29</t>
+  </si>
+  <si>
+    <t>k30</t>
+  </si>
+  <si>
+    <t>k31</t>
+  </si>
+  <si>
+    <t>k32</t>
+  </si>
+  <si>
+    <t>k33</t>
+  </si>
+  <si>
+    <t>k34</t>
+  </si>
+  <si>
+    <t>k35</t>
+  </si>
+  <si>
+    <t>k36</t>
+  </si>
+  <si>
+    <t>k37</t>
+  </si>
+  <si>
+    <t>k38</t>
+  </si>
+  <si>
+    <t>k39</t>
+  </si>
+  <si>
+    <t>k40</t>
+  </si>
+  <si>
+    <t>k41</t>
+  </si>
+  <si>
+    <t>k42</t>
+  </si>
+  <si>
+    <t>l3</t>
+  </si>
+  <si>
+    <t>l4</t>
+  </si>
+  <si>
+    <t>l5</t>
+  </si>
+  <si>
+    <t>l6</t>
+  </si>
+  <si>
+    <t>l7</t>
+  </si>
+  <si>
+    <t>l8</t>
+  </si>
+  <si>
+    <t>l9</t>
+  </si>
+  <si>
+    <t>l10</t>
+  </si>
+  <si>
+    <t>l11</t>
+  </si>
+  <si>
+    <t>l12</t>
+  </si>
+  <si>
+    <t>l13</t>
+  </si>
+  <si>
+    <t>l14</t>
+  </si>
+  <si>
+    <t>l15</t>
+  </si>
+  <si>
+    <t>l16</t>
+  </si>
+  <si>
+    <t>l17</t>
+  </si>
+  <si>
+    <t>l18</t>
+  </si>
+  <si>
+    <t>l19</t>
+  </si>
+  <si>
+    <t>l20</t>
+  </si>
+  <si>
+    <t>l21</t>
+  </si>
+  <si>
+    <t>l22</t>
+  </si>
+  <si>
+    <t>l23</t>
+  </si>
+  <si>
+    <t>l24</t>
+  </si>
+  <si>
+    <t>l25</t>
+  </si>
+  <si>
+    <t>l26</t>
+  </si>
+  <si>
+    <t>l27</t>
+  </si>
+  <si>
+    <t>l28</t>
+  </si>
+  <si>
+    <t>l29</t>
+  </si>
+  <si>
+    <t>l30</t>
+  </si>
+  <si>
+    <t>l31</t>
+  </si>
+  <si>
+    <t>l32</t>
+  </si>
+  <si>
+    <t>l33</t>
+  </si>
+  <si>
+    <t>l34</t>
+  </si>
+  <si>
+    <t>l35</t>
+  </si>
+  <si>
+    <t>l36</t>
+  </si>
+  <si>
+    <t>l37</t>
+  </si>
+  <si>
+    <t>l38</t>
+  </si>
+  <si>
+    <t>l39</t>
+  </si>
+  <si>
+    <t>l40</t>
+  </si>
+  <si>
+    <t>l41</t>
+  </si>
+  <si>
+    <t>l42</t>
+  </si>
+  <si>
+    <t>done.</t>
   </si>
 </sst>
 </file>
@@ -1295,17 +2192,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KN1"/>
+  <dimension ref="A1:KM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="ET1" workbookViewId="0">
+      <selection activeCell="FA3" sqref="FA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:300">
+    <row r="1" spans="1:299">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2201,8 +3098,915 @@
       <c r="KM1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="KN1" s="1" t="s">
-        <v>298</v>
+    </row>
+    <row r="2" spans="1:299">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M2" t="s">
+        <v>311</v>
+      </c>
+      <c r="N2" t="s">
+        <v>312</v>
+      </c>
+      <c r="O2" t="s">
+        <v>313</v>
+      </c>
+      <c r="P2" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>315</v>
+      </c>
+      <c r="R2" t="s">
+        <v>316</v>
+      </c>
+      <c r="S2" t="s">
+        <v>317</v>
+      </c>
+      <c r="T2" t="s">
+        <v>318</v>
+      </c>
+      <c r="U2" t="s">
+        <v>319</v>
+      </c>
+      <c r="V2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X2" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>355</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>356</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>357</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>358</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>359</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>361</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>362</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>364</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>365</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>368</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>369</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>370</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>371</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>372</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>373</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>374</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>375</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>376</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>377</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>379</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>380</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>383</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>384</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>385</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>386</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>387</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>388</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>389</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>390</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>391</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>392</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>393</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>394</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>395</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>396</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>397</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>398</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>399</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>400</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>401</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>402</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>403</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>404</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>405</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>406</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>407</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>408</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>409</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>410</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>411</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>412</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>413</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>414</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>415</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>416</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>417</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>418</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>419</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>420</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>421</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>423</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>424</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>425</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>426</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>427</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>428</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>429</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>430</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>431</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>432</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>433</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>434</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>435</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>436</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>437</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>438</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>439</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>440</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>441</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>442</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>443</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>444</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>445</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>446</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>447</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>448</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>450</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>452</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>453</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>454</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>455</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>456</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>457</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>458</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>459</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>460</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>461</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>462</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>463</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>464</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>465</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>466</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>467</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>468</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>469</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>470</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>471</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>472</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>473</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>474</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>475</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>476</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>477</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>478</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>479</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>480</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>481</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>482</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>483</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>484</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>485</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>486</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>487</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>488</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>489</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>490</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>491</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>492</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>493</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>494</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>495</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>496</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>497</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>498</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>499</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>500</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>501</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>502</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>503</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>504</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>505</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>506</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>507</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>508</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>509</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>510</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>512</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>513</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>514</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>515</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>516</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>517</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>518</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>519</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>520</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>521</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>522</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>523</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>524</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>527</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>528</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>529</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>530</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>531</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>532</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>533</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>534</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>535</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>536</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>537</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>538</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>539</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>540</v>
+      </c>
+      <c r="II2" t="s">
+        <v>541</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>542</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>543</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>544</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>545</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>546</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>547</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>548</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>549</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>550</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>551</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>552</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>553</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>554</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>555</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>556</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>557</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>558</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>559</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>560</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>561</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>562</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>563</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>564</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>565</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>566</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>567</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>568</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>569</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>570</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>571</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>572</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>573</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>574</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>575</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>576</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>577</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>578</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>579</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>580</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>581</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>582</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>583</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>584</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>585</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>586</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>587</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>588</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>589</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>590</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>591</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>592</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>593</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>594</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>595</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>596</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:299">
+      <c r="Z3" t="s">
+        <v>598</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>598</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
